--- a/biology/Zoologie/Hypsipterygidae/Hypsipterygidae.xlsx
+++ b/biology/Zoologie/Hypsipterygidae/Hypsipterygidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypsipteryx
-Les Hypsipterygidae sont une famille d'insectes hétéroptères (punaises) de l'infra-ordre des Dipsocoromorpha qui ne compte qu'un seul genre, Hypsipteryx, comprenant cinq espèces décrites, dont quatre vivantes et une fossile[2],[3].
+Les Hypsipterygidae sont une famille d'insectes hétéroptères (punaises) de l'infra-ordre des Dipsocoromorpha qui ne compte qu'un seul genre, Hypsipteryx, comprenant cinq espèces décrites, dont quatre vivantes et une fossile,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hypsipterygidae et le genre Hypsipteryx ont été créés en 1961 par l'entomologiste américain Carl John Drake (1885-1965).
 </t>
@@ -543,9 +557,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces petites punaises (de 2 à 3 mm de long), ont des yeux composés, des antennes de quatre articles apparents, flagelliformes, c'est-à-dire que les deux premiers articles sont courts et épais, alors que les deux suivants sont longs et fins. Leurs ailes sont aréolées, et leur pronotum présente trois carènes longitudinales, ce qui les distingue des autres Dipsocoromorpha, et les fait ressembler à des Tingidae (Cimicomorpha)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces petites punaises (de 2 à 3 mm de long), ont des yeux composés, des antennes de quatre articles apparents, flagelliformes, c'est-à-dire que les deux premiers articles sont courts et épais, alors que les deux suivants sont longs et fins. Leurs ailes sont aréolées, et leur pronotum présente trois carènes longitudinales, ce qui les distingue des autres Dipsocoromorpha, et les fait ressembler à des Tingidae (Cimicomorpha).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces espèces vivent des litières de feuilles ou du bois mort[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces espèces vivent des litières de feuilles ou du bois mort.
 </t>
         </is>
       </c>
@@ -605,14 +623,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces suivantes ont été décrites :
 Hypsipteryx ecpaglus Drake, 1961 (orientale)
 Hypsipteryx machadoi Drake, 1961 (Afrique)
 Hypsipteryx ugandensis Štys, 1970 (Afrique)
 Hypsipteryx vasarhelyii Rédei, 2007 (Vietnam)
-Ainsi qu'une espèce fossile : †Hypsipteryx hoffeinsorum Bechly &amp; Wittmann, 2000, provenant d'ambre de la Baltique[4].
+Ainsi qu'une espèce fossile : †Hypsipteryx hoffeinsorum Bechly &amp; Wittmann, 2000, provenant d'ambre de la Baltique.
 </t>
         </is>
       </c>
